--- a/app/template/FORM_U.xlsx
+++ b/app/template/FORM_U.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gnanasarathy.alagesan/Desktop/template-generation/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gnanasarathy.alagesan/Desktop/template-generation/app/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D622726B-3A24-BB4A-B1B3-85A92241BD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA7C6A1-23EA-2F47-8F04-570299756CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -298,11 +298,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="165" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -328,11 +327,6 @@
     <font>
       <vertAlign val="superscript"/>
       <sz val="10.5"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -385,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -418,33 +412,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
@@ -753,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -786,33 +753,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
     </row>
     <row r="2" spans="1:25" ht="102" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -963,33 +930,6 @@
         <v>-24</v>
       </c>
       <c r="Y3" s="10"/>
-    </row>
-    <row r="4" spans="1:25" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1000,6 +940,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F9FEA67CF6777C4AB74B948A518861AA" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cd1795a306785e1b4a3fed5d22855bc2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1bf355fc-b11d-474c-b7e7-6ee989aedfcd" xmlns:ns3="5604f3e5-4463-415f-9bda-b42e7c8c7eb2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fc5322334766c8627a5006bd364abe84" ns2:_="" ns3:_="">
     <xsd:import namespace="1bf355fc-b11d-474c-b7e7-6ee989aedfcd"/>
@@ -1222,16 +1171,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F5D99CB-52F6-4E8E-BBAF-F7A5B459CF78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF81772E-0732-47E6-8CEA-6B808697CEAF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1248,12 +1196,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F5D99CB-52F6-4E8E-BBAF-F7A5B459CF78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>